--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H2">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J2">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N2">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O2">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P2">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q2">
-        <v>13.44735204159289</v>
+        <v>3.975932756711222</v>
       </c>
       <c r="R2">
-        <v>121.026168374336</v>
+        <v>35.783394810401</v>
       </c>
       <c r="S2">
-        <v>0.02671918854654035</v>
+        <v>0.03614310858299762</v>
       </c>
       <c r="T2">
-        <v>0.02671918854654035</v>
+        <v>0.03614310858299762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.42873533333333</v>
+        <v>25.23990433333333</v>
       </c>
       <c r="H3">
-        <v>121.286206</v>
+        <v>75.719713</v>
       </c>
       <c r="I3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="J3">
-        <v>0.0831357659279396</v>
+        <v>0.05173702626903214</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N3">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P3">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q3">
-        <v>28.393585969424</v>
+        <v>1.715413271412111</v>
       </c>
       <c r="R3">
-        <v>255.542273724816</v>
+        <v>15.438719442709</v>
       </c>
       <c r="S3">
-        <v>0.05641657738139925</v>
+        <v>0.01559391768603451</v>
       </c>
       <c r="T3">
-        <v>0.05641657738139925</v>
+        <v>0.01559391768603452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>1237.41626</v>
       </c>
       <c r="I4">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J4">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N4">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O4">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P4">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q4">
-        <v>137.1959155042844</v>
+        <v>64.97494043355778</v>
       </c>
       <c r="R4">
-        <v>1234.76323953856</v>
+        <v>584.77446390202</v>
       </c>
       <c r="S4">
-        <v>0.2726011428001532</v>
+        <v>0.5906529287498331</v>
       </c>
       <c r="T4">
-        <v>0.2726011428001532</v>
+        <v>0.5906529287498332</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1237.41626</v>
       </c>
       <c r="I5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965644</v>
       </c>
       <c r="J5">
-        <v>0.84818836320749</v>
+        <v>0.8454897015965646</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N5">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P5">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q5">
-        <v>289.68409613104</v>
+        <v>28.03339038890889</v>
       </c>
       <c r="R5">
-        <v>2607.15686517936</v>
+        <v>252.30051350018</v>
       </c>
       <c r="S5">
-        <v>0.5755872204073369</v>
+        <v>0.2548367728467313</v>
       </c>
       <c r="T5">
-        <v>0.5755872204073369</v>
+        <v>0.2548367728467313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H6">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I6">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J6">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3326186666666667</v>
+        <v>0.1575256666666667</v>
       </c>
       <c r="N6">
-        <v>0.9978560000000001</v>
+        <v>0.472577</v>
       </c>
       <c r="O6">
-        <v>0.3213922220876632</v>
+        <v>0.6985926944284299</v>
       </c>
       <c r="P6">
-        <v>0.3213922220876632</v>
+        <v>0.69859269442843</v>
       </c>
       <c r="Q6">
-        <v>11.108439333792</v>
+        <v>7.898011321113667</v>
       </c>
       <c r="R6">
-        <v>99.975954004128</v>
+        <v>71.082101890023</v>
       </c>
       <c r="S6">
-        <v>0.02207189074096966</v>
+        <v>0.07179665709559911</v>
       </c>
       <c r="T6">
-        <v>0.02207189074096966</v>
+        <v>0.07179665709559913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.396921</v>
+        <v>50.137933</v>
       </c>
       <c r="H7">
-        <v>100.190763</v>
+        <v>150.413799</v>
       </c>
       <c r="I7">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="J7">
-        <v>0.0686758708645703</v>
+        <v>0.1027732721344034</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.702312</v>
+        <v>0.06796433333333333</v>
       </c>
       <c r="N7">
-        <v>2.106936</v>
+        <v>0.203893</v>
       </c>
       <c r="O7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="P7">
-        <v>0.6786077779123368</v>
+        <v>0.30140730557157</v>
       </c>
       <c r="Q7">
-        <v>23.455058381352</v>
+        <v>3.407591191056333</v>
       </c>
       <c r="R7">
-        <v>211.095525432168</v>
+        <v>30.66832071950699</v>
       </c>
       <c r="S7">
-        <v>0.04660398012360065</v>
+        <v>0.03097661503880424</v>
       </c>
       <c r="T7">
-        <v>0.04660398012360065</v>
+        <v>0.03097661503880424</v>
       </c>
     </row>
   </sheetData>
